--- a/Scrum_Unterlagen/Burndown_Chart_Vorlage.xlsx
+++ b/Scrum_Unterlagen/Burndown_Chart_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\Scrum_Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7320C5F2-6624-4C70-B529-62CC795AB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51089E18-E65C-4EC8-B5DF-9591267E5B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{8A0F6DEF-9CCD-4085-B528-61F5806CE436}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C88E1FE-E14A-4E89-9590-0A003BC27935}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
